--- a/src/test/resources/templates/excel/NestedLoopDocument.xlsx
+++ b/src/test/resources/templates/excel/NestedLoopDocument.xlsx
@@ -20,38 +20,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t xml:space="preserve">This is the rythm of the night</t>
   </si>
   <si>
-    <t xml:space="preserve">The night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ooh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh yeah</t>
-  </si>
-  <si>
     <t xml:space="preserve">{{services}}</t>
   </si>
   <si>
+    <t xml:space="preserve">{{shipName}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{/services}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{visitedPlanets}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{planetName}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{/visitedPlanets}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ship Name:</t>
   </si>
   <si>
-    <t xml:space="preserve">{{shipName}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{visitedPlanets}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Planet Name:</t>
   </si>
   <si>
-    <t xml:space="preserve">{{planetName}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{{visitedCities}}</t>
   </si>
   <si>
@@ -64,10 +61,7 @@
     <t xml:space="preserve">{{/visitedCities}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{/visitedPlanets}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{/services}}</t>
+    <t xml:space="preserve">--------------------</t>
   </si>
   <si>
     <t xml:space="preserve">Das Denken der Gedanken ist ein gedankeloses Denken</t>
@@ -81,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,13 +96,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -160,24 +147,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,99 +181,184 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="2" t="n">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="2" t="n">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="3" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="0" t="s">
+      <c r="B13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="0" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="0" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="0" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/templates/excel/NestedLoopDocument.xlsx
+++ b/src/test/resources/templates/excel/NestedLoopDocument.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -147,20 +147,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,198 +180,305 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1312</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/test/resources/templates/excel/NestedLoopDocument.xlsx
+++ b/src/test/resources/templates/excel/NestedLoopDocument.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">--------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">Das Denken der Gedanken ist ein gedankeloses Denken</t>
+    <t xml:space="preserve">Das Denken der Gedanken ist ein gedankenloses Denken</t>
   </si>
 </sst>
 </file>
@@ -294,12 +294,12 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="10:10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="11.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.52"/>
   </cols>
   <sheetData>

--- a/src/test/resources/templates/excel/NestedLoopDocument.xlsx
+++ b/src/test/resources/templates/excel/NestedLoopDocument.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">--------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">Das Denken der Gedanken ist ein gedankeloses Denken</t>
+    <t xml:space="preserve">Das Denken der Gedanken ist ein gedankenloses Denken</t>
   </si>
 </sst>
 </file>
@@ -147,20 +147,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,198 +180,305 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="10:10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1312</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>